--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang02/NKBH_AnhTuanNB_290224.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang02/NKBH_AnhTuanNB_290224.xlsx
@@ -420,64 +420,64 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,7 +520,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -894,7 +894,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,57 +916,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="31" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="31"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="31" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="31" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1020,57 +1020,57 @@
       <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="34" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="37" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1078,23 +1078,23 @@
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1115,50 +1115,50 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -1221,27 +1221,27 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33" t="s">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
@@ -1260,11 +1260,15 @@
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
@@ -1276,20 +1280,16 @@
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
